--- a/Mifos Automation Excels/Loan Product/2589-RBI-EI-DB-DL-REC-NON-RNI-CTPD-DL-MD-TR-2-DATE-VAR-INST-FEE-%INT-MORE-AMT-Loanproduct.xlsx
+++ b/Mifos Automation Excels/Loan Product/2589-RBI-EI-DB-DL-REC-NON-RNI-CTPD-DL-MD-TR-2-DATE-VAR-INST-FEE-%INT-MORE-AMT-Loanproduct.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="74">
   <si>
     <t>productname</t>
   </si>
@@ -155,9 +155,6 @@
     <t>addcharges</t>
   </si>
   <si>
-    <t>2589-RBI-EI-DB-DL-REC-NON-RNI-CTPD-DL-MD-TR-2-DATE-VAR-INST-FEE-%INT-MORE-AMT</t>
-  </si>
-  <si>
     <t>InstallmentFees-%Interest</t>
   </si>
   <si>
@@ -234,6 +231,12 @@
   </si>
   <si>
     <t>Overpayment Liability</t>
+  </si>
+  <si>
+    <t>2589-RBI-EI-DB-DL-REC-NON-RNI-CTPD-DL-MD-TR-2-DATE-VAR-INST-FEE-%INT-MORE-1st</t>
+  </si>
+  <si>
+    <t>2qq1</t>
   </si>
 </sst>
 </file>
@@ -617,8 +620,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -632,15 +635,15 @@
         <v>0</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>46</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="6">
-        <v>2589</v>
+      <c r="B2" s="6" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -880,7 +883,7 @@
         <v>44</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
@@ -893,7 +896,7 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" s="10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B34" s="10" t="s">
         <v>6</v>
@@ -901,98 +904,98 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="B35" s="1" t="s">
         <v>49</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="B36" s="1" t="s">
         <v>51</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="B37" s="1" t="s">
         <v>53</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="B38" s="1" t="s">
         <v>55</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="B39" s="1" t="s">
         <v>57</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="B40" s="1" t="s">
         <v>59</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="B41" s="1" t="s">
         <v>61</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="B42" s="1" t="s">
         <v>63</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="B43" s="1" t="s">
         <v>65</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="B44" s="1" t="s">
         <v>67</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="B45" s="1" t="s">
         <v>69</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="B46" s="1" t="s">
         <v>71</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -1020,7 +1023,7 @@
         <v>34</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>46</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>

--- a/Mifos Automation Excels/Loan Product/2589-RBI-EI-DB-DL-REC-NON-RNI-CTPD-DL-MD-TR-2-DATE-VAR-INST-FEE-%INT-MORE-AMT-Loanproduct.xlsx
+++ b/Mifos Automation Excels/Loan Product/2589-RBI-EI-DB-DL-REC-NON-RNI-CTPD-DL-MD-TR-2-DATE-VAR-INST-FEE-%INT-MORE-AMT-Loanproduct.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="73">
   <si>
     <t>productname</t>
   </si>
@@ -155,6 +155,9 @@
     <t>addcharges</t>
   </si>
   <si>
+    <t>2589-RBI-EI-DB-DL-REC-NON-RNI-CTPD-DL-MD-TR-2-DATE-VAR-INST-FEE-%INT-MORE-AMT</t>
+  </si>
+  <si>
     <t>InstallmentFees-%Interest</t>
   </si>
   <si>
@@ -231,12 +234,6 @@
   </si>
   <si>
     <t>Overpayment Liability</t>
-  </si>
-  <si>
-    <t>2589-RBI-EI-DB-DL-REC-NON-RNI-CTPD-DL-MD-TR-2-DATE-VAR-INST-FEE-%INT-MORE-1st</t>
-  </si>
-  <si>
-    <t>2qq1</t>
   </si>
 </sst>
 </file>
@@ -620,8 +617,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B46"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -635,15 +632,15 @@
         <v>0</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>72</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="6" t="s">
-        <v>73</v>
+      <c r="B2" s="6">
+        <v>2589</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -883,7 +880,7 @@
         <v>44</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
@@ -896,7 +893,7 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" s="10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B34" s="10" t="s">
         <v>6</v>
@@ -904,98 +901,98 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" s="8" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" s="8" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" s="8" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" s="8" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" s="8" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" s="8" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" s="8" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" s="8" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" s="8" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" s="8" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" s="8" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" s="8" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -1023,7 +1020,7 @@
         <v>34</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>72</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
